--- a/IT002-OOP/Điểm thực hành/it002m23cncl/it002m23cncl2.xlsx
+++ b/IT002-OOP/Điểm thực hành/it002m23cncl/it002m23cncl2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002m23cncl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45243A58-2B0E-4C3B-B5B3-59FDAF7FC5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AF6E6E-C637-48A6-9F26-B80E126CD053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Phản hồi</t>
+  </si>
+  <si>
+    <t>Lê Phan Hữu Nghĩa</t>
+  </si>
+  <si>
+    <t>Nguyễn Khánh Tường</t>
   </si>
 </sst>
 </file>
@@ -182,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -190,8 +196,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -494,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,67 +565,64 @@
       <c r="H2" s="4">
         <v>5</v>
       </c>
-      <c r="I2" s="5">
-        <f>C2/800+D2/800+E2/800+F2/800+G2/800+H2/2</f>
-        <v>3.9746999999999999</v>
+      <c r="I2" s="4">
+        <v>3.97</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>21521667</v>
+        <v>20520650</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>592.86</v>
-      </c>
-      <c r="D3" s="4">
-        <v>800</v>
-      </c>
-      <c r="E3" s="4">
-        <v>700</v>
-      </c>
-      <c r="F3" s="4">
-        <v>200</v>
-      </c>
-      <c r="G3" s="4">
-        <v>800</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="4">
-        <v>8</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I22" si="0">C3/800+D3/800+E3/800+F3/800+G3/800+H3/2</f>
-        <v>7.8660750000000004</v>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>21522168</v>
+        <v>21521667</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>592.86</v>
+      </c>
+      <c r="D4" s="4">
+        <v>800</v>
+      </c>
+      <c r="E4" s="4">
+        <v>700</v>
+      </c>
+      <c r="F4" s="4">
+        <v>200</v>
+      </c>
+      <c r="G4" s="4">
+        <v>800</v>
+      </c>
       <c r="H4" s="4">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>8</v>
+      </c>
+      <c r="I4" s="4">
+        <v>7.87</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>21522673</v>
+        <v>21522168</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4">
         <v>800</v>
@@ -639,52 +640,50 @@
         <v>800</v>
       </c>
       <c r="H5" s="4">
-        <v>6</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="I5" s="4">
+        <v>8.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>21522676</v>
+        <v>21522673</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>800</v>
+      </c>
+      <c r="D6" s="4">
+        <v>800</v>
+      </c>
+      <c r="E6" s="4">
+        <v>800</v>
+      </c>
+      <c r="F6" s="4">
+        <v>800</v>
+      </c>
+      <c r="G6" s="4">
+        <v>800</v>
+      </c>
+      <c r="H6" s="4">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
-        <v>800</v>
-      </c>
-      <c r="D6" s="4">
-        <v>800</v>
-      </c>
-      <c r="E6" s="4">
-        <v>800</v>
-      </c>
-      <c r="F6" s="4">
-        <v>800</v>
-      </c>
-      <c r="G6" s="4">
-        <v>800</v>
-      </c>
-      <c r="H6" s="4">
-        <v>9</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
+      <c r="I6" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>21522677</v>
+        <v>21522676</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="D7" s="4">
         <v>800</v>
@@ -699,59 +698,57 @@
         <v>800</v>
       </c>
       <c r="H7" s="4">
-        <v>8</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>8.90625</v>
+        <v>9</v>
+      </c>
+      <c r="I7" s="4">
+        <v>9.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>21522678</v>
+        <v>21522677</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>725</v>
+      </c>
+      <c r="D8" s="4">
+        <v>800</v>
+      </c>
+      <c r="E8" s="4">
+        <v>800</v>
+      </c>
+      <c r="F8" s="4">
+        <v>800</v>
+      </c>
+      <c r="G8" s="4">
+        <v>800</v>
+      </c>
+      <c r="H8" s="4">
         <v>8</v>
       </c>
-      <c r="C8" s="4">
-        <v>644.29</v>
-      </c>
-      <c r="D8" s="4">
-        <v>350</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>800</v>
-      </c>
-      <c r="G8" s="4">
-        <v>800</v>
-      </c>
-      <c r="H8" s="4">
-        <v>6</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>6.2428625000000002</v>
+      <c r="I8" s="4">
+        <v>8.91</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>21522681</v>
+        <v>21522678</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>800</v>
+        <v>644.29</v>
       </c>
       <c r="D9" s="4">
-        <v>550</v>
-      </c>
-      <c r="E9" s="4">
-        <v>800</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G9" s="4">
         <v>800</v>
@@ -759,145 +756,149 @@
       <c r="H9" s="4">
         <v>6</v>
       </c>
-      <c r="I9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.0625</v>
+      <c r="I9" s="4">
+        <v>6.24</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>21522682</v>
+        <v>21522681</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="D10" s="4">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E10" s="4">
         <v>800</v>
       </c>
       <c r="F10" s="4">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G10" s="4">
         <v>800</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="0"/>
-        <v>4.1875</v>
+        <v>6</v>
+      </c>
+      <c r="I10" s="4">
+        <v>7.06</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>21522698</v>
+        <v>21522682</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>600</v>
+      </c>
+      <c r="D11" s="4">
+        <v>700</v>
+      </c>
+      <c r="E11" s="4">
+        <v>800</v>
+      </c>
+      <c r="F11" s="4">
+        <v>450</v>
+      </c>
+      <c r="G11" s="4">
+        <v>800</v>
+      </c>
       <c r="H11" s="4">
-        <v>5</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <v>6.19</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>21522710</v>
+        <v>21522698</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>800</v>
+      </c>
+      <c r="D12" s="4">
+        <v>800</v>
+      </c>
+      <c r="E12" s="4">
+        <v>600</v>
+      </c>
+      <c r="F12" s="4">
+        <v>700</v>
+      </c>
+      <c r="G12" s="4">
+        <v>600</v>
+      </c>
       <c r="H12" s="4">
-        <v>4</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>6.88</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>21522732</v>
+        <v>21522710</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4">
-        <v>425</v>
-      </c>
-      <c r="D13" s="4">
-        <v>614.29</v>
-      </c>
-      <c r="E13" s="4">
-        <v>700</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4">
-        <v>533.33000000000004</v>
-      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4">
-        <v>5</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="0"/>
-        <v>5.3407750000000007</v>
+        <v>4</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>21522742</v>
+        <v>21522732</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
-        <v>800</v>
+        <v>425</v>
       </c>
       <c r="D14" s="4">
-        <v>800</v>
+        <v>614.29</v>
       </c>
       <c r="E14" s="4">
         <v>700</v>
       </c>
-      <c r="F14" s="4">
-        <v>800</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4">
-        <v>800</v>
+        <v>533.33000000000004</v>
       </c>
       <c r="H14" s="4">
-        <v>7</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="0"/>
-        <v>8.375</v>
+        <v>5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5.34</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>21522747</v>
+        <v>21522742</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4">
         <v>800</v>
@@ -906,236 +907,270 @@
         <v>800</v>
       </c>
       <c r="E15" s="4">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F15" s="4">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G15" s="4">
         <v>800</v>
       </c>
       <c r="H15" s="4">
-        <v>5</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="0"/>
-        <v>7.375</v>
+        <v>7</v>
+      </c>
+      <c r="I15" s="4">
+        <v>8.3800000000000008</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>21522755</v>
+        <v>21522747</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>800</v>
+      </c>
       <c r="D16" s="4">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E16" s="4">
-        <v>600</v>
-      </c>
-      <c r="F16" s="4"/>
+        <v>800</v>
+      </c>
+      <c r="F16" s="4">
+        <v>700</v>
+      </c>
       <c r="G16" s="4">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>7.38</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>21522762</v>
+        <v>21522755</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4">
-        <v>800</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="4">
-        <v>742.86</v>
+        <v>400</v>
       </c>
       <c r="E17" s="4">
         <v>600</v>
       </c>
-      <c r="F17" s="4">
-        <v>500</v>
-      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="4">
         <v>600</v>
       </c>
       <c r="H17" s="4">
-        <v>10</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>9.0535750000000004</v>
+        <v>6</v>
+      </c>
+      <c r="I17" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>21522776</v>
+        <v>21522762</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4">
         <v>800</v>
       </c>
       <c r="D18" s="4">
-        <v>800</v>
+        <v>742.86</v>
       </c>
       <c r="E18" s="4">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F18" s="4">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G18" s="4">
         <v>600</v>
       </c>
       <c r="H18" s="4">
-        <v>7</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
-        <v>7.5625</v>
+        <v>10</v>
+      </c>
+      <c r="I18" s="4">
+        <v>9.0500000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>21522777</v>
+        <v>21522774</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4">
-        <v>180</v>
-      </c>
-      <c r="D19" s="4">
-        <v>600</v>
-      </c>
-      <c r="E19" s="4">
-        <v>450</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4">
-        <v>300</v>
-      </c>
-      <c r="G19" s="4">
-        <v>600</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="4">
-        <v>8</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="0"/>
-        <v>6.6624999999999996</v>
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2.1</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>21522798</v>
+        <v>21522776</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4">
+        <v>800</v>
+      </c>
+      <c r="D20" s="4">
+        <v>800</v>
+      </c>
+      <c r="E20" s="4">
+        <v>300</v>
+      </c>
+      <c r="F20" s="4">
         <v>750</v>
       </c>
-      <c r="D20" s="4">
-        <v>600</v>
-      </c>
-      <c r="E20" s="4">
-        <v>500</v>
-      </c>
-      <c r="F20" s="4">
-        <v>400</v>
-      </c>
       <c r="G20" s="4">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H20" s="4">
-        <v>10</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="0"/>
-        <v>8.8125</v>
+        <v>7</v>
+      </c>
+      <c r="I20" s="4">
+        <v>7.56</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>21522804</v>
+        <v>21522777</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="D21" s="4">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E21" s="4">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="F21" s="4">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G21" s="4">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H21" s="4">
-        <v>6</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="0"/>
         <v>8</v>
+      </c>
+      <c r="I21" s="4">
+        <v>7.04</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
+        <v>21522798</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4">
+        <v>750</v>
+      </c>
+      <c r="D22" s="4">
+        <v>600</v>
+      </c>
+      <c r="E22" s="4">
+        <v>500</v>
+      </c>
+      <c r="F22" s="4">
+        <v>400</v>
+      </c>
+      <c r="G22" s="4">
+        <v>800</v>
+      </c>
+      <c r="H22" s="4">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>21522804</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4">
+        <v>800</v>
+      </c>
+      <c r="D23" s="4">
+        <v>800</v>
+      </c>
+      <c r="E23" s="4">
+        <v>800</v>
+      </c>
+      <c r="F23" s="4">
+        <v>800</v>
+      </c>
+      <c r="G23" s="4">
+        <v>800</v>
+      </c>
+      <c r="H23" s="4">
+        <v>6</v>
+      </c>
+      <c r="I23" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>21522885</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4">
-        <v>800</v>
-      </c>
-      <c r="D22" s="4">
-        <v>800</v>
-      </c>
-      <c r="E22" s="4">
-        <v>600</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="C24" s="4">
+        <v>800</v>
+      </c>
+      <c r="D24" s="4">
+        <v>800</v>
+      </c>
+      <c r="E24" s="4">
+        <v>600</v>
+      </c>
+      <c r="F24" s="4">
         <v>750</v>
       </c>
-      <c r="G22" s="4">
-        <v>600</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G24" s="4">
+        <v>600</v>
+      </c>
+      <c r="H24" s="4">
         <v>8</v>
       </c>
-      <c r="I22" s="5">
-        <f t="shared" si="0"/>
-        <v>8.4375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H23">
-        <f>AVERAGE(H2:H22)</f>
-        <v>6.1904761904761907</v>
-      </c>
-      <c r="I23" s="6">
-        <f>AVERAGE(I2:I22)</f>
-        <v>6.4456779761904768</v>
+      <c r="I24" s="4">
+        <v>8.44</v>
       </c>
     </row>
   </sheetData>
